--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2330344.778553277</v>
+        <v>2335284.04140231</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>115.8514726665571</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>118.0992256993565</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>43.60620160013897</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>69.88805331244991</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>206.0963641532423</v>
       </c>
       <c r="H5" t="n">
-        <v>249.0654855425692</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>32.62289633771015</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003455</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>59.47484791402322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>10.8085950301004</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642685</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>29.36686421043641</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.8803936258646</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0889553650309</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.21955153433352</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>200.4997564950149</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>77.8682875383153</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>150.1361581815813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>36.88713826833451</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.21532344290732</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.68762643336728</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.379069117473</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>735.4165521770612</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>735.4165521770612</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>735.4165521770612</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>324.4306473874537</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D4" t="n">
-        <v>97.9896501033331</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>97.9896501033331</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>97.9896501033331</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>97.9896501033331</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>97.9896501033331</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="W4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="X4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.9896501033331</v>
+        <v>509.3883323957195</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.473993239633</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C5" t="n">
-        <v>1134.473993239633</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D5" t="n">
-        <v>1134.473993239633</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.473993239633</v>
+        <v>1000.301752183305</v>
       </c>
       <c r="F5" t="n">
-        <v>723.4880884500253</v>
+        <v>589.3158473936974</v>
       </c>
       <c r="G5" t="n">
-        <v>305.5242803482122</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>689.9086980046678</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>821.0691186598717</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>452.10660171946</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>93.8409031127095</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>93.8409031127095</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>86.89540236350602</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5238,13 +5238,13 @@
         <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>895.0275396120149</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.7828679390603</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C16" t="n">
-        <v>821.8466850111535</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988177</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164246</v>
+        <v>108.134864217963</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185143</v>
+        <v>108.134864217963</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383349</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1245.467356144947</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>990.7828679390603</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>990.7828679390603</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>990.7828679390603</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.7828679390603</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.4700143146945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>234.4700143146945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>234.4700143146945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>234.4700143146945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>234.4700143146945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429516</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>416.1184791449342</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.1184791449342</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1404.755107391909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1404.755107391909</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1404.755107391909</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1115.626468605467</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1115.626468605467</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>826.2092985685065</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>964.135741824786</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>761.6107352641649</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X31" t="n">
-        <v>761.6107352641649</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.8181561206347</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.6683216085047</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1123.478170315508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.478170315508</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>134.4768270848662</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>134.4768270848662</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7417,7 +7417,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169051</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>330.8254548799445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.0328757364144</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>166.2348074750139</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.6849734332772</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>256.8704881881409</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.61317483751301</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>4.434042971560075</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.74480086945927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>86.02324184157609</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>140.7163658137795</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.125262335200631</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>102.0014851422467</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>73.53210719593747</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>124.7054865406959</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.14435374857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837254.2622894618</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="12">
@@ -26316,7 +26316,7 @@
         <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
@@ -26325,7 +26325,7 @@
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
         <v>566992.136619678</v>
@@ -26334,28 +26334,28 @@
         <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196775</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="O2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="E4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773399</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834769</v>
+        <v>-260920.3609834771</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310679</v>
+        <v>329047.5182310676</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310673</v>
+        <v>329047.5182310674</v>
       </c>
       <c r="E6" t="n">
-        <v>-87562.3005833905</v>
+        <v>-86685.16844964077</v>
       </c>
       <c r="F6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="G6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="H6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="I6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="J6" t="n">
-        <v>261174.5167009128</v>
+        <v>262051.6488346626</v>
       </c>
       <c r="K6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="L6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="M6" t="n">
-        <v>302796.7206596681</v>
+        <v>303673.8527934178</v>
       </c>
       <c r="N6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="O6" t="n">
-        <v>437597.7358935055</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="P6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.868027255</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>297.9326973542379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>251.6318749791125</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>91.35942019219925</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>182.2495900113781</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>207.6878058675526</v>
       </c>
       <c r="H5" t="n">
-        <v>74.85728722178791</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.8715720492882</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>381.1612736830849</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080827</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.041372693116067e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
